--- a/biology/Histoire de la zoologie et de la botanique/Victor_Willem/Victor_Willem.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Willem/Victor_Willem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Antoine joseph Willem, né à Dison le 26 mars 1866 et mort à Gand le 10 avril 1952, est un zoologiste belge, Professeur à l'Université de Gand, et un entomologiste, spécialiste des collemboles, et d'autres hexapodes primitifs.
 </t>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1901
-V. Willem, 1901 : Les Collemboles recueillis par l'Expédition Antarctique Belge. Annals of the society for Entomology of Belgium.
-1902
-V. Willem, 1902 : Note préliminaire sur les Collemboles des Grottes de Han et de Rochefort. Annales de la Société entomologique de Belgique, vol. 46, 1902, p. 275-283.</t>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V. Willem, 1901 : Les Collemboles recueillis par l'Expédition Antarctique Belge. Annals of the society for Entomology of Belgium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Victor_Willem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Willem</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V. Willem, 1902 : Note préliminaire sur les Collemboles des Grottes de Han et de Rochefort. Annales de la Société entomologique de Belgique, vol. 46, 1902, p. 275-283.</t>
         </is>
       </c>
     </row>
